--- a/space_types/supporting docs/MultiSpaceTypeOfficeWorksheet.xlsx
+++ b/space_types/supporting docs/MultiSpaceTypeOfficeWorksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="120">
   <si>
     <t>Office Space Type breakdown in TSD documents.</t>
   </si>
@@ -349,6 +349,33 @@
   </si>
   <si>
     <t>Office Infil Quarter On</t>
+  </si>
+  <si>
+    <t>sources for data are ref building, TSD, and standards spreadsheet dat</t>
+  </si>
+  <si>
+    <t>Look at infiltration for different vintages. Here is what spreadhseet shows</t>
+  </si>
+  <si>
+    <t>Pre 1980</t>
+  </si>
+  <si>
+    <t>1980-2004</t>
+  </si>
+  <si>
+    <t>2009 1-3</t>
+  </si>
+  <si>
+    <t>2009 4-8</t>
+  </si>
+  <si>
+    <t>(ft^3/min*ft^2 ext)</t>
+  </si>
+  <si>
+    <t>Not sure of the source of these values.</t>
+  </si>
+  <si>
+    <t>On Demand</t>
   </si>
 </sst>
 </file>
@@ -356,7 +383,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -432,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,6 +493,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -652,16 +691,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -725,12 +764,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -756,9 +789,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -766,12 +796,40 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1069,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,13 +1513,13 @@
       <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="82" t="s">
         <v>45</v>
       </c>
       <c r="J22" s="21"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="83" t="s">
         <v>43</v>
       </c>
       <c r="J23" s="21"/>
@@ -3336,10 +3394,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:R49"/>
+  <dimension ref="A2:R61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3350,6 +3408,11 @@
     <col min="14" max="14" width="9.140625" style="41"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+    </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>87</v>
@@ -3390,20 +3453,20 @@
       <c r="E6" s="7"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="76"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="10"/>
       <c r="K6" s="41"/>
       <c r="M6" s="55"/>
       <c r="N6" s="43"/>
       <c r="O6" s="43"/>
       <c r="P6" s="43"/>
-      <c r="Q6" s="63" t="s">
+      <c r="Q6" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="R6" s="64"/>
+      <c r="R6" s="80"/>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
@@ -3415,10 +3478,10 @@
       <c r="C7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="66"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="6" t="s">
         <v>16</v>
       </c>
@@ -3431,16 +3494,16 @@
       <c r="I7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="91" t="s">
         <v>54</v>
       </c>
       <c r="K7" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="70" t="s">
+      <c r="M7" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="N7" s="71" t="s">
+      <c r="N7" s="69" t="s">
         <v>92</v>
       </c>
       <c r="O7" s="58" t="s">
@@ -3457,7 +3520,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="74" t="s">
         <v>101</v>
       </c>
       <c r="B8" s="49">
@@ -3466,10 +3529,10 @@
       <c r="C8" s="9">
         <v>5</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="78">
         <v>0.85</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="78" t="s">
         <v>97</v>
       </c>
       <c r="F8" s="9">
@@ -3489,10 +3552,10 @@
         <v>110</v>
       </c>
       <c r="M8" s="55">
-        <f>(C8*B8*$F$5)/1000</f>
+        <f t="shared" ref="M8:M20" si="0">(C8*B8*$F$5)/1000</f>
         <v>15</v>
       </c>
-      <c r="N8" s="72">
+      <c r="N8" s="70">
         <f>M8*D8</f>
         <v>12.75</v>
       </c>
@@ -3509,12 +3572,12 @@
         <v>100</v>
       </c>
       <c r="R8" s="56">
-        <f>I8*B8*$F$5</f>
+        <f t="shared" ref="R8:R20" si="1">I8*B8*$F$5</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="74" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="49">
@@ -3523,10 +3586,10 @@
       <c r="C9" s="9">
         <v>5</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="78">
         <v>0.85</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="78" t="s">
         <v>97</v>
       </c>
       <c r="F9" s="9">
@@ -3546,19 +3609,19 @@
         <v>110</v>
       </c>
       <c r="M9" s="55">
-        <f>(C9*B9*$F$5)/1000</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="N9" s="72">
-        <f t="shared" ref="N9:N20" si="0">M9*D9</f>
+      <c r="N9" s="70">
+        <f t="shared" ref="N9:N20" si="2">M9*D9</f>
         <v>24.65</v>
       </c>
       <c r="O9" s="43">
-        <f t="shared" ref="O9:O20" si="1">F9*B9*$F$5</f>
+        <f t="shared" ref="O9:O20" si="3">F9*B9*$F$5</f>
         <v>6380</v>
       </c>
       <c r="P9" s="43">
-        <f t="shared" ref="P9:P20" si="2">G9*B9*$F$5</f>
+        <f t="shared" ref="P9:P20" si="4">G9*B9*$F$5</f>
         <v>5045.9999999999991</v>
       </c>
       <c r="Q9" s="43">
@@ -3566,7 +3629,7 @@
         <v>100</v>
       </c>
       <c r="R9" s="56">
-        <f>I9*B9*$F$5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3580,10 +3643,10 @@
       <c r="C10" s="9">
         <v>50</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="78">
         <v>0.4</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="78" t="s">
         <v>96</v>
       </c>
       <c r="F10" s="9">
@@ -3603,19 +3666,19 @@
         <v>110</v>
       </c>
       <c r="M10" s="55">
-        <f>(C10*B10*$F$5)/1000</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="N10" s="72">
-        <f t="shared" si="0"/>
+      <c r="N10" s="70">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="O10" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2080</v>
       </c>
       <c r="P10" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1600</v>
       </c>
       <c r="Q10" s="43">
@@ -3623,7 +3686,7 @@
         <v>1000</v>
       </c>
       <c r="R10" s="56">
-        <f>I10*B10*$F$5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3637,11 +3700,11 @@
       <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D11" s="81">
-        <v>0.4</v>
-      </c>
-      <c r="E11" s="81" t="s">
-        <v>96</v>
+      <c r="D11" s="78">
+        <v>0.85</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>97</v>
       </c>
       <c r="F11" s="9">
         <v>0.5</v>
@@ -3659,19 +3722,19 @@
         <v>110</v>
       </c>
       <c r="M11" s="55">
-        <f>(C11*B11*$F$5)/1000</f>
+        <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="N11" s="72">
-        <f t="shared" si="0"/>
-        <v>0.96</v>
+      <c r="N11" s="70">
+        <f t="shared" si="2"/>
+        <v>2.04</v>
       </c>
       <c r="O11" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="P11" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q11" s="43">
@@ -3679,7 +3742,7 @@
         <v>0.05</v>
       </c>
       <c r="R11" s="56">
-        <f>I11*B11*$F$5</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -3691,8 +3754,8 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="9">
         <v>0.8</v>
       </c>
@@ -3710,27 +3773,27 @@
         <v>110</v>
       </c>
       <c r="M12" s="55">
-        <f>(C12*B12*$F$5)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="43">
-        <f t="shared" si="1"/>
-        <v>2240.0000000000005</v>
-      </c>
-      <c r="P12" s="43">
+      <c r="N12" s="70">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="O12" s="43">
+        <f t="shared" si="3"/>
+        <v>2240.0000000000005</v>
+      </c>
+      <c r="P12" s="43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Q12" s="43">
-        <f>H12*C12</f>
+        <f t="shared" ref="Q12:Q20" si="5">H12*C12</f>
         <v>0</v>
       </c>
       <c r="R12" s="56">
-        <f>I12*B12*$F$5</f>
+        <f t="shared" si="1"/>
         <v>140.00000000000003</v>
       </c>
     </row>
@@ -3744,10 +3807,10 @@
       <c r="C13" s="9">
         <v>10</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="78">
         <v>0.4</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="78" t="s">
         <v>96</v>
       </c>
       <c r="F13" s="9">
@@ -3757,7 +3820,7 @@
         <v>0.27</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="74">
+      <c r="I13" s="72">
         <v>0.96</v>
       </c>
       <c r="J13" s="9">
@@ -3767,27 +3830,27 @@
         <v>110</v>
       </c>
       <c r="M13" s="55">
-        <f>(C13*B13*$F$5)/1000</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="N13" s="72">
-        <f t="shared" si="0"/>
+      <c r="N13" s="70">
+        <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
       <c r="O13" s="43">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+      <c r="P13" s="43">
+        <f t="shared" si="4"/>
+        <v>216</v>
+      </c>
+      <c r="Q13" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="56">
         <f t="shared" si="1"/>
-        <v>640</v>
-      </c>
-      <c r="P13" s="43">
-        <f t="shared" si="2"/>
-        <v>216</v>
-      </c>
-      <c r="Q13" s="43">
-        <f>H13*C13</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="56">
-        <f>I13*B13*$F$5</f>
         <v>767.99999999999989</v>
       </c>
     </row>
@@ -3801,10 +3864,10 @@
       <c r="C14" s="9">
         <v>50</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D14" s="78">
         <v>0.4</v>
       </c>
-      <c r="E14" s="81" t="s">
+      <c r="E14" s="78" t="s">
         <v>96</v>
       </c>
       <c r="F14" s="9">
@@ -3824,27 +3887,27 @@
         <v>110</v>
       </c>
       <c r="M14" s="55">
-        <f>(C14*B14*$F$5)/1000</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="N14" s="72">
-        <f t="shared" si="0"/>
+      <c r="N14" s="70">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O14" s="43">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+      <c r="P14" s="43">
+        <f t="shared" si="4"/>
+        <v>2968</v>
+      </c>
+      <c r="Q14" s="43">
+        <f t="shared" si="5"/>
+        <v>750</v>
+      </c>
+      <c r="R14" s="56">
         <f t="shared" si="1"/>
-        <v>480</v>
-      </c>
-      <c r="P14" s="43">
-        <f t="shared" si="2"/>
-        <v>2968</v>
-      </c>
-      <c r="Q14" s="43">
-        <f>H14*C14</f>
-        <v>750</v>
-      </c>
-      <c r="R14" s="56">
-        <f>I14*B14*$F$5</f>
         <v>0</v>
       </c>
     </row>
@@ -3856,8 +3919,8 @@
         <v>0.02</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="9">
         <v>1.5</v>
       </c>
@@ -3875,27 +3938,27 @@
         <v>110</v>
       </c>
       <c r="M15" s="55">
-        <f>(C15*B15*$F$5)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N15" s="70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="O15" s="43">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="P15" s="43">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="Q15" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="56">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="P15" s="43">
-        <f t="shared" si="2"/>
-        <v>108</v>
-      </c>
-      <c r="Q15" s="43">
-        <f>H15*C15</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="56">
-        <f>I15*B15*$F$5</f>
         <v>0</v>
       </c>
     </row>
@@ -3907,8 +3970,8 @@
         <v>0.03</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
       <c r="F16" s="9">
         <v>0.6</v>
       </c>
@@ -3926,27 +3989,27 @@
         <v>110</v>
       </c>
       <c r="M16" s="55">
-        <f>(C16*B16*$F$5)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O16" s="43">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="P16" s="43">
+      <c r="N16" s="70">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="O16" s="43">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="P16" s="43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Q16" s="43">
-        <f>H16*C16</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R16" s="56">
-        <f>I16*B16*$F$5</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -3960,10 +4023,10 @@
       <c r="C17" s="9">
         <v>10</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="78">
         <v>0.4</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="78" t="s">
         <v>96</v>
       </c>
       <c r="F17" s="9">
@@ -3983,27 +4046,27 @@
         <v>110</v>
       </c>
       <c r="M17" s="55">
-        <f>(C17*B17*$F$5)/1000</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="N17" s="72">
-        <f t="shared" si="0"/>
+      <c r="N17" s="70">
+        <f t="shared" si="2"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="O17" s="43">
+        <f t="shared" si="3"/>
+        <v>1560</v>
+      </c>
+      <c r="P17" s="43">
+        <f t="shared" si="4"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="Q17" s="43">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="R17" s="56">
         <f t="shared" si="1"/>
-        <v>1560</v>
-      </c>
-      <c r="P17" s="43">
-        <f t="shared" si="2"/>
-        <v>84.000000000000014</v>
-      </c>
-      <c r="Q17" s="43">
-        <f>H17*C17</f>
-        <v>150</v>
-      </c>
-      <c r="R17" s="56">
-        <f>I17*B17*$F$5</f>
         <v>0</v>
       </c>
     </row>
@@ -4017,10 +4080,10 @@
       <c r="C18" s="9">
         <v>5</v>
       </c>
-      <c r="D18" s="81">
-        <v>0.85</v>
-      </c>
-      <c r="E18" s="81" t="s">
+      <c r="D18" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="E18" s="78" t="s">
         <v>96</v>
       </c>
       <c r="F18" s="9">
@@ -4040,27 +4103,27 @@
         <v>110</v>
       </c>
       <c r="M18" s="55">
-        <f>(C18*B18*$F$5)/1000</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="N18" s="72">
-        <f t="shared" si="0"/>
-        <v>0.42499999999999999</v>
+      <c r="N18" s="70">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="O18" s="43">
+        <f t="shared" si="3"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="P18" s="43">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="Q18" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="56">
         <f t="shared" si="1"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="P18" s="43">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="Q18" s="43">
-        <f>H18*C18</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="56">
-        <f>I18*B18*$F$5</f>
         <v>5</v>
       </c>
     </row>
@@ -4074,10 +4137,10 @@
       <c r="C19" s="9">
         <v>1</v>
       </c>
-      <c r="D19" s="81">
+      <c r="D19" s="78">
         <v>0.4</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="78" t="s">
         <v>96</v>
       </c>
       <c r="F19" s="9">
@@ -4097,27 +4160,27 @@
         <v>110</v>
       </c>
       <c r="M19" s="55">
-        <f>(C19*B19*$F$5)/1000</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="N19" s="72">
-        <f t="shared" si="0"/>
+      <c r="N19" s="70">
+        <f t="shared" si="2"/>
         <v>0.16000000000000003</v>
       </c>
       <c r="O19" s="43">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="P19" s="43">
+        <f t="shared" si="4"/>
+        <v>2100</v>
+      </c>
+      <c r="Q19" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="56">
         <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="P19" s="43">
-        <f t="shared" si="2"/>
-        <v>2100</v>
-      </c>
-      <c r="Q19" s="43">
-        <f>H19*C19</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="56">
-        <f>I19*B19*$F$5</f>
         <v>20</v>
       </c>
     </row>
@@ -4131,11 +4194,11 @@
       <c r="C20" s="9">
         <v>10</v>
       </c>
-      <c r="D20" s="81">
+      <c r="D20" s="78">
         <v>0.4</v>
       </c>
-      <c r="E20" s="81" t="s">
-        <v>97</v>
+      <c r="E20" s="78" t="s">
+        <v>96</v>
       </c>
       <c r="F20" s="9">
         <v>1.1000000000000001</v>
@@ -4154,27 +4217,27 @@
         <v>110</v>
       </c>
       <c r="M20" s="55">
-        <f>(C20*B20*$F$5)/1000</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N20" s="72">
-        <f t="shared" si="0"/>
+      <c r="N20" s="70">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O20" s="43">
+        <f t="shared" si="3"/>
+        <v>550.00000000000011</v>
+      </c>
+      <c r="P20" s="43">
+        <f t="shared" si="4"/>
+        <v>3375</v>
+      </c>
+      <c r="Q20" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="56">
         <f t="shared" si="1"/>
-        <v>550.00000000000011</v>
-      </c>
-      <c r="P20" s="43">
-        <f t="shared" si="2"/>
-        <v>3375</v>
-      </c>
-      <c r="Q20" s="43">
-        <f>H20*C20</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="56">
-        <f>I20*B20*$F$5</f>
         <v>25.000000000000004</v>
       </c>
     </row>
@@ -4191,7 +4254,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="41"/>
       <c r="M21" s="55"/>
-      <c r="N21" s="72"/>
+      <c r="N21" s="70"/>
       <c r="O21" s="43"/>
       <c r="P21" s="43"/>
       <c r="Q21" s="43"/>
@@ -4209,8 +4272,8 @@
         <f>(M22/F5)*1000</f>
         <v>8.615000000000002</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
       <c r="F22" s="9">
         <f>O22/$F$5</f>
         <v>0.98499999999999999</v>
@@ -4234,27 +4297,27 @@
         <v>110</v>
       </c>
       <c r="M22" s="60">
-        <f>SUM(M8:M20)</f>
+        <f t="shared" ref="M22:R22" si="6">SUM(M8:M20)</f>
         <v>172.3</v>
       </c>
-      <c r="N22" s="73">
-        <f>SUM(N8:N20)</f>
-        <v>88.944999999999993</v>
+      <c r="N22" s="71">
+        <f t="shared" si="6"/>
+        <v>89.800000000000011</v>
       </c>
       <c r="O22" s="61">
-        <f>SUM(O8:O20)</f>
+        <f t="shared" si="6"/>
         <v>19700</v>
       </c>
       <c r="P22" s="61">
-        <f>SUM(P8:P20)</f>
+        <f t="shared" si="6"/>
         <v>18307</v>
       </c>
       <c r="Q22" s="61">
-        <f>SUM(Q8:Q20)</f>
+        <f t="shared" si="6"/>
         <v>2100.0500000000002</v>
       </c>
       <c r="R22" s="62">
-        <f>SUM(R8:R20)</f>
+        <f t="shared" si="6"/>
         <v>1108</v>
       </c>
     </row>
@@ -4270,7 +4333,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="2"/>
       <c r="M23" s="43"/>
-      <c r="N23" s="72"/>
+      <c r="N23" s="70"/>
       <c r="O23" s="43"/>
       <c r="P23" s="43"/>
       <c r="Q23" s="43"/>
@@ -4306,7 +4369,7 @@
       </c>
       <c r="N24" s="23">
         <f>N22*1000/F5</f>
-        <v>4.4472500000000004</v>
+        <v>4.4900000000000011</v>
       </c>
       <c r="O24" s="41" t="s">
         <v>94</v>
@@ -4396,7 +4459,7 @@
       <c r="K28" s="41"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
+      <c r="A29" s="63"/>
       <c r="B29" t="s">
         <v>79</v>
       </c>
@@ -4453,7 +4516,7 @@
       <c r="E34" s="44"/>
     </row>
     <row r="37" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="75"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="46" t="s">
         <v>103</v>
       </c>
@@ -4470,13 +4533,13 @@
     </row>
     <row r="40" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52"/>
-      <c r="C40" s="68" t="s">
+      <c r="C40" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="68" t="s">
+      <c r="D40" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="69" t="s">
+      <c r="E40" s="67" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4484,15 +4547,15 @@
       <c r="B41" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="79">
+      <c r="C41" s="76">
         <f>Q22</f>
         <v>2100.0500000000002</v>
       </c>
-      <c r="D41" s="79">
+      <c r="D41" s="76">
         <f>H24*C24*F5/1000</f>
         <v>2186</v>
       </c>
-      <c r="E41" s="80">
+      <c r="E41" s="77">
         <f>H25*C25*F5/1000</f>
         <v>2648</v>
       </c>
@@ -4501,12 +4564,12 @@
       <c r="B42" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="79">
+      <c r="C42" s="76">
         <f>R22</f>
         <v>1108</v>
       </c>
-      <c r="D42" s="79"/>
-      <c r="E42" s="80"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="77"/>
     </row>
     <row r="43" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="60" t="s">
@@ -4532,7 +4595,7 @@
       <c r="E44" s="43"/>
     </row>
     <row r="46" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="77"/>
+      <c r="A46" s="74"/>
       <c r="B46" t="s">
         <v>104</v>
       </c>
@@ -4545,10 +4608,82 @@
       <c r="K46" s="41"/>
     </row>
     <row r="47" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="78"/>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="75"/>
       <c r="B49" t="s">
         <v>105</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="N49"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="90"/>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" s="84"/>
+    </row>
+    <row r="53" spans="1:14" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" s="84"/>
+    </row>
+    <row r="54" spans="1:14" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="84"/>
+    </row>
+    <row r="55" spans="1:14" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" s="84"/>
+    </row>
+    <row r="56" spans="1:14" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="84"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="85">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="D57" s="86"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="87">
+        <v>0.22320000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="44">
+        <v>2004</v>
+      </c>
+      <c r="C59" s="88">
+        <v>5.9499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="88">
+        <v>5.9499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="89">
+        <v>4.4600000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/space_types/supporting docs/MultiSpaceTypeOfficeWorksheet.xlsx
+++ b/space_types/supporting docs/MultiSpaceTypeOfficeWorksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="18720" windowHeight="7185" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Proposed Space Type 2004" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="123">
   <si>
     <t>Office Space Type breakdown in TSD documents.</t>
   </si>
@@ -321,61 +322,70 @@
     <t>BreakRoom</t>
   </si>
   <si>
-    <t>OfficePrivate</t>
+    <t>note: I'm currently using0.96 cfm/sqft (TSD's use exhaust instead and have no ventilation)</t>
+  </si>
+  <si>
+    <t>It seems like small and medium office should have different occupancy and load densities from each other</t>
+  </si>
+  <si>
+    <t>Should Elevator be a space type, and if so what should it look like</t>
+  </si>
+  <si>
+    <t>cfm person total</t>
+  </si>
+  <si>
+    <t>cfm area total</t>
+  </si>
+  <si>
+    <t>(ref sm office schedule adjusted peak people - ref)</t>
+  </si>
+  <si>
+    <t>(TSD sm office schedule adjusted peak people - ref)</t>
+  </si>
+  <si>
+    <t>Office Infil Quarter On</t>
+  </si>
+  <si>
+    <t>sources for data are ref building, TSD, and standards spreadsheet dat</t>
+  </si>
+  <si>
+    <t>Look at infiltration for different vintages. Here is what spreadhseet shows</t>
+  </si>
+  <si>
+    <t>Pre 1980</t>
+  </si>
+  <si>
+    <t>1980-2004</t>
+  </si>
+  <si>
+    <t>2009 1-3</t>
+  </si>
+  <si>
+    <t>2009 4-8</t>
+  </si>
+  <si>
+    <t>(ft^3/min*ft^2 ext)</t>
+  </si>
+  <si>
+    <t>Not sure of the source of these values.</t>
+  </si>
+  <si>
+    <t>On Demand</t>
+  </si>
+  <si>
+    <t>Talking to Shanti, may make sense to slightly raise the people and plug load density for open office, and increase the lighting for closed. Look at 62.1</t>
+  </si>
+  <si>
+    <t>OfficeOpen</t>
+  </si>
+  <si>
+    <t>Good link from wbdg.org</t>
+  </si>
+  <si>
+    <t>http://www.wbdg.org/design/office_st.php</t>
   </si>
   <si>
     <t>OfficeClosed</t>
-  </si>
-  <si>
-    <t>note: I'm currently using0.96 cfm/sqft (TSD's use exhaust instead and have no ventilation)</t>
-  </si>
-  <si>
-    <t>It seems like small and medium office should have different occupancy and load densities from each other</t>
-  </si>
-  <si>
-    <t>Should Elevator be a space type, and if so what should it look like</t>
-  </si>
-  <si>
-    <t>cfm person total</t>
-  </si>
-  <si>
-    <t>cfm area total</t>
-  </si>
-  <si>
-    <t>(ref sm office schedule adjusted peak people - ref)</t>
-  </si>
-  <si>
-    <t>(TSD sm office schedule adjusted peak people - ref)</t>
-  </si>
-  <si>
-    <t>Office Infil Quarter On</t>
-  </si>
-  <si>
-    <t>sources for data are ref building, TSD, and standards spreadsheet dat</t>
-  </si>
-  <si>
-    <t>Look at infiltration for different vintages. Here is what spreadhseet shows</t>
-  </si>
-  <si>
-    <t>Pre 1980</t>
-  </si>
-  <si>
-    <t>1980-2004</t>
-  </si>
-  <si>
-    <t>2009 1-3</t>
-  </si>
-  <si>
-    <t>2009 4-8</t>
-  </si>
-  <si>
-    <t>(ft^3/min*ft^2 ext)</t>
-  </si>
-  <si>
-    <t>Not sure of the source of these values.</t>
-  </si>
-  <si>
-    <t>On Demand</t>
   </si>
 </sst>
 </file>
@@ -638,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -796,15 +806,6 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -818,6 +819,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1128,7 +1141,7 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,13 +1526,13 @@
       <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="79" t="s">
         <v>45</v>
       </c>
       <c r="J22" s="21"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="80" t="s">
         <v>43</v>
       </c>
       <c r="J23" s="21"/>
@@ -3394,10 +3407,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:R61"/>
+  <dimension ref="A2:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,7 +3423,7 @@
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3428,7 +3441,7 @@
       <c r="B5" s="17"/>
       <c r="C5" s="18">
         <f>M22</f>
-        <v>172.3</v>
+        <v>173.00000000000003</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -3453,20 +3466,20 @@
       <c r="E6" s="7"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="81"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="10"/>
       <c r="K6" s="41"/>
       <c r="M6" s="55"/>
       <c r="N6" s="43"/>
       <c r="O6" s="43"/>
       <c r="P6" s="43"/>
-      <c r="Q6" s="79" t="s">
+      <c r="Q6" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="R6" s="80"/>
+      <c r="R6" s="91"/>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
@@ -3494,7 +3507,7 @@
       <c r="I7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="91" t="s">
+      <c r="J7" s="88" t="s">
         <v>54</v>
       </c>
       <c r="K7" s="29" t="s">
@@ -3521,13 +3534,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="74" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B8" s="49">
         <v>0.15</v>
       </c>
-      <c r="C8" s="9">
-        <v>5</v>
+      <c r="C8" s="89">
+        <v>4.75</v>
       </c>
       <c r="D8" s="78">
         <v>0.85</v>
@@ -3535,11 +3548,12 @@
       <c r="E8" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="89">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G8" s="9">
-        <v>0.87</v>
+      <c r="G8" s="89">
+        <f>0.87*0.95</f>
+        <v>0.82650000000000001</v>
       </c>
       <c r="H8" s="9">
         <v>20</v>
@@ -3549,15 +3563,15 @@
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M8" s="55">
         <f t="shared" ref="M8:M20" si="0">(C8*B8*$F$5)/1000</f>
-        <v>15</v>
+        <v>14.25</v>
       </c>
       <c r="N8" s="70">
         <f>M8*D8</f>
-        <v>12.75</v>
+        <v>12.112499999999999</v>
       </c>
       <c r="O8" s="43">
         <f>F8*B8*$F$5</f>
@@ -3565,11 +3579,11 @@
       </c>
       <c r="P8" s="43">
         <f>G8*B8*$F$5</f>
-        <v>2610</v>
+        <v>2479.5</v>
       </c>
       <c r="Q8" s="43">
         <f>H8*C8</f>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R8" s="56">
         <f t="shared" ref="R8:R20" si="1">I8*B8*$F$5</f>
@@ -3578,13 +3592,13 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B9" s="49">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C9" s="9">
-        <v>5</v>
+      <c r="C9" s="89">
+        <v>5.25</v>
       </c>
       <c r="D9" s="78">
         <v>0.85</v>
@@ -3592,11 +3606,12 @@
       <c r="E9" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="89">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G9" s="9">
-        <v>0.87</v>
+      <c r="G9" s="89">
+        <f>0.87*1.05</f>
+        <v>0.91349999999999998</v>
       </c>
       <c r="H9" s="9">
         <v>20</v>
@@ -3606,15 +3621,15 @@
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M9" s="55">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30.45</v>
       </c>
       <c r="N9" s="70">
         <f t="shared" ref="N9:N20" si="2">M9*D9</f>
-        <v>24.65</v>
+        <v>25.8825</v>
       </c>
       <c r="O9" s="43">
         <f t="shared" ref="O9:O20" si="3">F9*B9*$F$5</f>
@@ -3622,11 +3637,11 @@
       </c>
       <c r="P9" s="43">
         <f t="shared" ref="P9:P20" si="4">G9*B9*$F$5</f>
-        <v>5045.9999999999991</v>
+        <v>5298.2999999999993</v>
       </c>
       <c r="Q9" s="43">
         <f>H9*C9</f>
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="R9" s="56">
         <f t="shared" si="1"/>
@@ -3663,7 +3678,7 @@
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M10" s="55">
         <f t="shared" si="0"/>
@@ -3719,7 +3734,7 @@
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="K11" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M11" s="55">
         <f t="shared" si="0"/>
@@ -3770,7 +3785,7 @@
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M12" s="55">
         <f t="shared" si="0"/>
@@ -3827,7 +3842,7 @@
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M13" s="55">
         <f t="shared" si="0"/>
@@ -3884,7 +3899,7 @@
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M14" s="55">
         <f t="shared" si="0"/>
@@ -3935,7 +3950,7 @@
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M15" s="55">
         <f t="shared" si="0"/>
@@ -3986,7 +4001,7 @@
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M16" s="55">
         <f t="shared" si="0"/>
@@ -4043,7 +4058,7 @@
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M17" s="55">
         <f t="shared" si="0"/>
@@ -4100,7 +4115,7 @@
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="K18" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M18" s="55">
         <f t="shared" si="0"/>
@@ -4157,7 +4172,7 @@
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="K19" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" s="55">
         <f t="shared" si="0"/>
@@ -4214,7 +4229,7 @@
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M20" s="55">
         <f t="shared" si="0"/>
@@ -4270,7 +4285,7 @@
       </c>
       <c r="C22" s="51">
         <f>(M22/F5)*1000</f>
-        <v>8.615000000000002</v>
+        <v>8.6500000000000021</v>
       </c>
       <c r="D22" s="65"/>
       <c r="E22" s="65"/>
@@ -4280,11 +4295,11 @@
       </c>
       <c r="G22" s="9">
         <f>P22/$F$5</f>
-        <v>0.91535</v>
+        <v>0.92143999999999993</v>
       </c>
       <c r="H22" s="9">
         <f>Q22/C5</f>
-        <v>12.188334300638422</v>
+        <v>12.139017341040461</v>
       </c>
       <c r="I22" s="9">
         <f>R22/F5</f>
@@ -4294,15 +4309,15 @@
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="K22" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M22" s="60">
         <f t="shared" ref="M22:R22" si="6">SUM(M8:M20)</f>
-        <v>172.3</v>
+        <v>173.00000000000003</v>
       </c>
       <c r="N22" s="71">
         <f t="shared" si="6"/>
-        <v>89.800000000000011</v>
+        <v>90.39500000000001</v>
       </c>
       <c r="O22" s="61">
         <f t="shared" si="6"/>
@@ -4310,7 +4325,7 @@
       </c>
       <c r="P22" s="61">
         <f t="shared" si="6"/>
-        <v>18307</v>
+        <v>18428.8</v>
       </c>
       <c r="Q22" s="61">
         <f t="shared" si="6"/>
@@ -4369,7 +4384,7 @@
       </c>
       <c r="N24" s="23">
         <f>N22*1000/F5</f>
-        <v>4.4900000000000011</v>
+        <v>4.519750000000001</v>
       </c>
       <c r="O24" s="41" t="s">
         <v>94</v>
@@ -4411,7 +4426,7 @@
         <v>4.75</v>
       </c>
       <c r="O25" s="41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -4447,7 +4462,7 @@
         <v>4.18</v>
       </c>
       <c r="O26" s="41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -4491,7 +4506,7 @@
       </c>
       <c r="E32" s="44"/>
     </row>
-    <row r="33" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>3</v>
       </c>
@@ -4502,8 +4517,9 @@
         <v>88</v>
       </c>
       <c r="E33" s="44"/>
-    </row>
-    <row r="34" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>4</v>
       </c>
@@ -4514,24 +4530,23 @@
         <v>88</v>
       </c>
       <c r="E34" s="44"/>
-    </row>
-    <row r="37" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N34"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="73"/>
       <c r="B37" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-    </row>
-    <row r="39" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="N37"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="41" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-    </row>
-    <row r="40" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N39"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="52"/>
       <c r="C40" s="66" t="s">
         <v>89</v>
@@ -4542,10 +4557,11 @@
       <c r="E40" s="67" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N40"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C41" s="76">
         <f>Q22</f>
@@ -4559,10 +4575,11 @@
         <f>H25*C25*F5/1000</f>
         <v>2648</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N41"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C42" s="76">
         <f>R22</f>
@@ -4570,8 +4587,9 @@
       </c>
       <c r="D42" s="76"/>
       <c r="E42" s="77"/>
-    </row>
-    <row r="43" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N42"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" s="60" t="s">
         <v>74</v>
       </c>
@@ -4587,102 +4605,116 @@
         <f>SUM(E41:E42)</f>
         <v>2648</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N43"/>
+    </row>
+    <row r="44" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
     </row>
-    <row r="46" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="74"/>
       <c r="B46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
+        <v>102</v>
+      </c>
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
       <c r="I46" s="41"/>
       <c r="J46" s="41"/>
       <c r="K46" s="41"/>
-    </row>
-    <row r="47" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="75"/>
-      <c r="B49" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="N49"/>
-    </row>
+      <c r="N46"/>
+    </row>
+    <row r="47" spans="1:14" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:14" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="90"/>
+      <c r="A52" s="75"/>
       <c r="B52" t="s">
-        <v>112</v>
-      </c>
-      <c r="F52" s="84"/>
-    </row>
-    <row r="53" spans="1:14" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="89" t="s">
-        <v>118</v>
-      </c>
-      <c r="F53" s="84"/>
-    </row>
-    <row r="54" spans="1:14" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F54" s="84"/>
-    </row>
-    <row r="55" spans="1:14" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="89" t="s">
-        <v>119</v>
-      </c>
-      <c r="F55" s="84"/>
-    </row>
-    <row r="56" spans="1:14" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="N52"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="87"/>
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55" s="81"/>
+    </row>
+    <row r="56" spans="1:14" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" s="81"/>
+    </row>
+    <row r="57" spans="1:14" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="81"/>
+    </row>
+    <row r="58" spans="1:14" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="F56" s="84"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="85">
-        <v>0.22320000000000001</v>
-      </c>
-      <c r="D57" s="86"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="87">
-        <v>0.22320000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="44">
-        <v>2004</v>
-      </c>
-      <c r="C59" s="88">
-        <v>5.9499999999999997E-2</v>
-      </c>
+      <c r="F58" s="81"/>
+    </row>
+    <row r="59" spans="1:14" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" s="81"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B60" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="C60" s="88">
-        <v>5.9499999999999997E-2</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C60" s="82">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="D60" s="83"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B61" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" s="89">
+        <v>112</v>
+      </c>
+      <c r="C61" s="84">
+        <v>0.22320000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="44">
+        <v>2004</v>
+      </c>
+      <c r="C62" s="85">
+        <v>5.9499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="85">
+        <v>5.9499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="86">
         <v>4.4600000000000001E-2</v>
       </c>
     </row>
